--- a/alumnos.xlsx
+++ b/alumnos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cueto\OneDrive\Escritorio\wbd angulo\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/ANGULO/assistance-system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E5231-3338-45F8-B011-97CC970E30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9542A6E-D3B1-8E4C-8130-40674A3CED0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Codigo</t>
   </si>
@@ -106,9 +106,6 @@
     <t>PATRICK EFRAIN POSTILLOS ESTRADA</t>
   </si>
   <si>
-    <t>FABRIZIO GABRIEL RAMIREZ PATINO</t>
-  </si>
-  <si>
     <t>JHAN BRAYAN ZAMIR REYES FABIAN</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>SEBASTIAN ALBERTO ROJAS ROJAS</t>
   </si>
   <si>
-    <t>CARLOS ANTONIO ROMERO LLAMOCA</t>
-  </si>
-  <si>
     <t>JEREMY ANDREW ROSILLO RAMIREZ</t>
   </si>
   <si>
@@ -133,13 +127,13 @@
     <t>ANDREW GABRIEL SERNA QUIROZ</t>
   </si>
   <si>
-    <t>DANIEL EDUARDO TINTAYA AVILA</t>
-  </si>
-  <si>
     <t>GABRIEL OMAR USCAMAYTA SANCHEZ</t>
   </si>
   <si>
     <t>YAN LUIS VILLANUEVA OLASCUAG</t>
+  </si>
+  <si>
+    <t>CUETO SALAZAR SEBASTIAN ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -519,18 +513,18 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,9 +532,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2220001</v>
+        <v>22200232</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -548,9 +542,9 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2220002</v>
+        <v>22200299</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -558,9 +552,9 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2220003</v>
+        <v>22200265</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -568,9 +562,9 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2220004</v>
+        <v>13200051</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -578,9 +572,9 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>2220005</v>
+        <v>22200073</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -588,9 +582,9 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>2220006</v>
+        <v>22200074</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -598,9 +592,9 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>2220007</v>
+        <v>22200255</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -608,9 +602,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>2220008</v>
+        <v>22200281</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
@@ -618,9 +612,9 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>2220009</v>
+        <v>22200247</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -628,9 +622,9 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>2220010</v>
+        <v>22000262</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -638,9 +632,9 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>2220011</v>
+        <v>22200257</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
@@ -648,9 +642,9 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>2220012</v>
+        <v>22200078</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -658,264 +652,253 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2220013</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>22200080</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>2220014</v>
+        <v>22200291</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>2220015</v>
+        <v>21200277</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>2220016</v>
+        <v>22200104</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>2220017</v>
+        <v>22200279</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>2220018</v>
+        <v>22200288</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>2220019</v>
+        <v>22200302</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>2220020</v>
+        <v>22200060</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>2220021</v>
+        <v>22200277</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>2220022</v>
+        <v>22200252</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>2220023</v>
+        <v>22200233</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>2220024</v>
+        <v>22200229</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>2220025</v>
+        <v>22200256</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>2220026</v>
+        <v>22200254</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>2220027</v>
+        <v>22200096</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>2220028</v>
+        <v>22200297</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>2220029</v>
+        <v>22200276</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>2220030</v>
+        <v>22200261</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>2220031</v>
+        <v>22200267</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>2220032</v>
+        <v>22200242</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>2220033</v>
+        <v>22200099</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>2220034</v>
+        <v>22200239</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>2220035</v>
+        <v>22200101</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>2220036</v>
+        <v>22200301</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2220037</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
-      </c>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2220038</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
